--- a/заказы/статистика филиалы/2024/01,24/17,01,24 КИ/дв 17,01,24 днрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/17,01,24 КИ/дв 17,01,24 днрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\17,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\17,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A331E4-C5D1-4811-A192-59927440CF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5010C42F-A0EC-4AF1-808D-6A330F7909FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,9 +325,6 @@
     <t>запас без заказа</t>
   </si>
   <si>
-    <t>коментарий</t>
-  </si>
-  <si>
     <t>вес</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>20,01,</t>
+  </si>
+  <si>
+    <t>комментарии</t>
   </si>
 </sst>
 </file>
@@ -6677,7 +6677,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6750,13 +6750,13 @@
         <v>93</v>
       </c>
       <c r="P3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="S3" s="16"/>
       <c r="T3" s="13" t="s">
@@ -6775,10 +6775,10 @@
         <v>93</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6804,35 +6804,35 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="N4" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="X4" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="13"/>
@@ -7292,7 +7292,7 @@
         <v>51.2</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="5"/>
@@ -7347,7 +7347,7 @@
         <v>451.11</v>
       </c>
       <c r="Q11" s="37">
-        <f t="shared" ref="Q7:Q70" si="6">P11</f>
+        <f t="shared" ref="Q11:Q70" si="6">P11</f>
         <v>451.11</v>
       </c>
       <c r="R11" s="33">
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="5"/>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="5"/>
@@ -8145,7 +8145,7 @@
         <v>4.7522000000000002</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="5"/>
@@ -10807,7 +10807,7 @@
         <v>0.4</v>
       </c>
       <c r="Y57" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z57" s="2">
         <f t="shared" si="5"/>
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z72" s="2">
         <f t="shared" si="14"/>
@@ -12034,7 +12034,7 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="Y74" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z74" s="2">
         <f t="shared" si="14"/>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z75" s="2">
         <f t="shared" si="14"/>
@@ -12169,7 +12169,7 @@
         <v>1.6</v>
       </c>
       <c r="Y76" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z76" s="2">
         <f t="shared" si="14"/>
@@ -12235,7 +12235,7 @@
         <v>3.2</v>
       </c>
       <c r="Y77" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z77" s="2">
         <f t="shared" si="14"/>
